--- a/public/M1Database/index/Index_T.xlsx
+++ b/public/M1Database/index/Index_T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy\Desktop\Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\hardly-normal\public\M1Database\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288E5F2-A1FD-4AAB-918F-DF1C224A3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54FC37E-F7F8-40C2-A587-3963F540541F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7990" yWindow="3270" windowWidth="30930" windowHeight="15380" xr2:uid="{C8371F28-BCEE-4548-B36E-A03F8EC7D7EF}"/>
+    <workbookView xWindow="760" yWindow="3780" windowWidth="24110" windowHeight="15380" xr2:uid="{C8371F28-BCEE-4548-B36E-A03F8EC7D7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>jimbig@gmail.com</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>annette_cigarette@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB5F4D-F723-4103-81B4-E7A8340C6605}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,7 +429,7 @@
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>43048</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -543,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>44144</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>44879</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -595,12 +601,30 @@
       </c>
       <c r="E10" s="2">
         <v>45245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>41000000022</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44696</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{743635EC-D2D3-4358-A2FC-DF82B1A25E9E}"/>
     <hyperlink ref="D3:D10" r:id="rId2" display="jimbig@gmail.com" xr:uid="{048DFD9D-0391-4EC5-90C0-FF1334EA0392}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{2D4B1171-0CAB-4CB2-9E3E-F1BF404388A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
